--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.1.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.1.1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu.COMPRO\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F62811-8CCC-41D3-9BD3-2117D761A841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -477,11 +476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,18 +516,6 @@
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.1.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.1.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3EA464-D2F4-45C7-8759-82BEA2884C2D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -476,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
